--- a/out/tab1_readChapters.xlsx
+++ b/out/tab1_readChapters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh1510922\Documents\2020_multimorbidity\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096B022A-7B5B-4709-8728-BEAFF132828C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A55705-A07D-40B0-A72E-A81BF0AC4135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" xr2:uid="{E14D1577-E150-40A1-8ACB-1406A1550EC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" activeTab="1" xr2:uid="{E14D1577-E150-40A1-8ACB-1406A1550EC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eczema" sheetId="1" r:id="rId1"/>
+    <sheet name="Asthma" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>A</t>
   </si>
@@ -451,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1CE11F-E661-4061-9218-414CA1E4EB39}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -798,4 +801,401 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7FBCE2-1172-407D-AD07-51C41F8DA682}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>615236</v>
+      </c>
+      <c r="C2">
+        <v>5.27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>949941</v>
+      </c>
+      <c r="E2">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>183756</v>
+      </c>
+      <c r="C3">
+        <v>1.57</v>
+      </c>
+      <c r="D3" s="1">
+        <v>293719</v>
+      </c>
+      <c r="E3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>317469</v>
+      </c>
+      <c r="C4">
+        <v>2.72</v>
+      </c>
+      <c r="D4" s="1">
+        <v>502425</v>
+      </c>
+      <c r="E4">
+        <v>2.74</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>69517</v>
+      </c>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>105965</v>
+      </c>
+      <c r="E5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>526225</v>
+      </c>
+      <c r="C6">
+        <v>4.51</v>
+      </c>
+      <c r="D6" s="1">
+        <v>851848</v>
+      </c>
+      <c r="E6">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1033820</v>
+      </c>
+      <c r="C7">
+        <v>8.85</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1597906</v>
+      </c>
+      <c r="E7">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>484451</v>
+      </c>
+      <c r="C8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>766628</v>
+      </c>
+      <c r="E8">
+        <v>4.18</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2257422</v>
+      </c>
+      <c r="C9">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3533665</v>
+      </c>
+      <c r="E9">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>593247</v>
+      </c>
+      <c r="C10">
+        <v>5.08</v>
+      </c>
+      <c r="D10" s="1">
+        <v>944415</v>
+      </c>
+      <c r="E10">
+        <v>5.15</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>730020</v>
+      </c>
+      <c r="C11">
+        <v>6.25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1134211</v>
+      </c>
+      <c r="E11">
+        <v>6.18</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>128972</v>
+      </c>
+      <c r="C12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>207680</v>
+      </c>
+      <c r="E12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1608168</v>
+      </c>
+      <c r="C13">
+        <v>13.77</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2528292</v>
+      </c>
+      <c r="E13">
+        <v>13.78</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1506417</v>
+      </c>
+      <c r="C14">
+        <v>12.9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2390580</v>
+      </c>
+      <c r="E14">
+        <v>13.03</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>27677</v>
+      </c>
+      <c r="C15">
+        <v>0.24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43744</v>
+      </c>
+      <c r="E15">
+        <v>0.24</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10311</v>
+      </c>
+      <c r="C16">
+        <v>0.09</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15144</v>
+      </c>
+      <c r="E16">
+        <v>0.08</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>803276</v>
+      </c>
+      <c r="C17">
+        <v>6.88</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1233882</v>
+      </c>
+      <c r="E17">
+        <v>6.73</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>606463</v>
+      </c>
+      <c r="C18">
+        <v>5.19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>970176</v>
+      </c>
+      <c r="E18">
+        <v>5.29</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>146189</v>
+      </c>
+      <c r="C19">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>230493</v>
+      </c>
+      <c r="E19">
+        <v>1.26</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>27409</v>
+      </c>
+      <c r="C20">
+        <v>0.23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45284</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/out/tab1_readChapters.xlsx
+++ b/out/tab1_readChapters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh1510922\Documents\2020_multimorbidity\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A55705-A07D-40B0-A72E-A81BF0AC4135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3757684B-78BA-45DB-9244-B6F57D4B266F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" activeTab="1" xr2:uid="{E14D1577-E150-40A1-8ACB-1406A1550EC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" xr2:uid="{E14D1577-E150-40A1-8ACB-1406A1550EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Eczema" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>A</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>READ</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -133,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,353 +454,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1CE11F-E661-4061-9218-414CA1E4EB39}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>754135</v>
+        <v>1092890</v>
       </c>
       <c r="C2">
-        <v>5.43</v>
+        <v>5.39</v>
       </c>
       <c r="D2" s="1">
-        <v>1092890</v>
+        <v>2136422</v>
       </c>
       <c r="E2">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>228140</v>
+        <v>334240</v>
       </c>
       <c r="C3">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="D3" s="1">
-        <v>334240</v>
+        <v>865827</v>
       </c>
       <c r="E3">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>383168</v>
+        <v>561632</v>
       </c>
       <c r="C4">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="D4" s="1">
-        <v>561632</v>
+        <v>1382889</v>
       </c>
       <c r="E4">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>87765</v>
+        <v>123357</v>
       </c>
       <c r="C5">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="D5" s="1">
-        <v>123357</v>
+        <v>279965</v>
       </c>
       <c r="E5">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>603389</v>
+        <v>898405</v>
       </c>
       <c r="C6">
-        <v>4.3499999999999996</v>
+        <v>4.43</v>
       </c>
       <c r="D6" s="1">
-        <v>898405</v>
+        <v>2055393</v>
       </c>
       <c r="E6">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.93</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1309918</v>
+        <v>1881596</v>
       </c>
       <c r="C7">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3931848</v>
+      </c>
+      <c r="E7">
         <v>9.44</v>
       </c>
-      <c r="D7" s="1">
-        <v>1881596</v>
-      </c>
-      <c r="E7">
-        <v>9.2799999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>617947</v>
+        <v>898701</v>
       </c>
       <c r="C8">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
       <c r="D8" s="1">
-        <v>898701</v>
+        <v>2256950</v>
       </c>
       <c r="E8">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.42</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2103889</v>
+        <v>3084683</v>
       </c>
       <c r="C9">
-        <v>15.15</v>
+        <v>15.21</v>
       </c>
       <c r="D9" s="1">
-        <v>3084683</v>
+        <v>5570001</v>
       </c>
       <c r="E9">
-        <v>15.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.37</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>720168</v>
+        <v>1060572</v>
       </c>
       <c r="C10">
-        <v>5.19</v>
+        <v>5.23</v>
       </c>
       <c r="D10" s="1">
-        <v>1060572</v>
+        <v>2363105</v>
       </c>
       <c r="E10">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.67</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>924811</v>
+        <v>1321764</v>
       </c>
       <c r="C11">
-        <v>6.66</v>
+        <v>6.52</v>
       </c>
       <c r="D11" s="1">
-        <v>1321764</v>
+        <v>2988666</v>
       </c>
       <c r="E11">
-        <v>6.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.18</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>142542</v>
+        <v>209951</v>
       </c>
       <c r="C12">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D12" s="1">
-        <v>209951</v>
+        <v>594794</v>
       </c>
       <c r="E12">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.43</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>2195868</v>
+        <v>3271883</v>
       </c>
       <c r="C13">
-        <v>15.82</v>
+        <v>16.14</v>
       </c>
       <c r="D13" s="1">
-        <v>3271883</v>
+        <v>4899265</v>
       </c>
       <c r="E13">
-        <v>16.14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.76</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1900089</v>
+        <v>2767189</v>
       </c>
       <c r="C14">
-        <v>13.69</v>
+        <v>13.65</v>
       </c>
       <c r="D14" s="1">
-        <v>2767189</v>
+        <v>6242082</v>
       </c>
       <c r="E14">
-        <v>13.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.99</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>29637</v>
+        <v>44353</v>
       </c>
       <c r="C15">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D15" s="1">
-        <v>44353</v>
+        <v>107161</v>
       </c>
       <c r="E15">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>12453</v>
+        <v>16594</v>
       </c>
       <c r="C16">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="D16" s="1">
-        <v>16594</v>
+        <v>34634</v>
       </c>
       <c r="E16">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1002878</v>
+        <v>1423085</v>
       </c>
       <c r="C17">
-        <v>7.22</v>
+        <v>7.02</v>
       </c>
       <c r="D17" s="1">
-        <v>1423085</v>
+        <v>2922144</v>
       </c>
       <c r="E17">
         <v>7.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>673300</v>
+        <v>996967</v>
       </c>
       <c r="C18">
-        <v>4.8499999999999996</v>
+        <v>4.92</v>
       </c>
       <c r="D18" s="1">
-        <v>996967</v>
+        <v>2353562</v>
       </c>
       <c r="E18">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.65</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>166649</v>
+        <v>244726</v>
       </c>
       <c r="C19">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="D19" s="1">
-        <v>244726</v>
+        <v>561384</v>
       </c>
       <c r="E19">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.35</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>26505</v>
+        <v>41416</v>
       </c>
       <c r="C20">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D20" s="1">
-        <v>41416</v>
+        <v>104667</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -807,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7FBCE2-1172-407D-AD07-51C41F8DA682}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,16 +864,16 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -835,16 +881,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>615236</v>
-      </c>
-      <c r="C2">
-        <v>5.27</v>
+        <v>1039309</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.21</v>
       </c>
       <c r="D2" s="1">
-        <v>949941</v>
+        <v>2319787</v>
       </c>
       <c r="E2">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -852,35 +898,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>183756</v>
-      </c>
-      <c r="C3">
-        <v>1.57</v>
+        <v>323512</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.62</v>
       </c>
       <c r="D3" s="1">
-        <v>293719</v>
+        <v>913594</v>
       </c>
       <c r="E3">
-        <v>1.6</v>
-      </c>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>317469</v>
-      </c>
-      <c r="C4">
-        <v>2.72</v>
+        <v>545280</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.74</v>
       </c>
       <c r="D4" s="1">
-        <v>502425</v>
+        <v>1444772</v>
       </c>
       <c r="E4">
-        <v>2.74</v>
-      </c>
-      <c r="O4" s="1"/>
+        <v>3.24</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -888,18 +937,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>69517</v>
-      </c>
-      <c r="C5">
-        <v>0.6</v>
+        <v>115278</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.57999999999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>105965</v>
+        <v>288030</v>
       </c>
       <c r="E5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -907,18 +958,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>526225</v>
-      </c>
-      <c r="C6">
-        <v>4.51</v>
+        <v>917703</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.5999999999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>851848</v>
+        <v>2240186</v>
       </c>
       <c r="E6">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="O6" s="1"/>
+        <v>5.03</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -926,18 +979,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1033820</v>
-      </c>
-      <c r="C7">
-        <v>8.85</v>
+        <v>1758167</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.82</v>
       </c>
       <c r="D7" s="1">
-        <v>1597906</v>
+        <v>4151409</v>
       </c>
       <c r="E7">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="O7" s="1"/>
+        <v>9.32</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -945,18 +1000,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>484451</v>
-      </c>
-      <c r="C8">
-        <v>4.1500000000000004</v>
+        <v>837748</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.2</v>
       </c>
       <c r="D8" s="1">
-        <v>766628</v>
+        <v>2311967</v>
       </c>
       <c r="E8">
-        <v>4.18</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>5.19</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -964,18 +1021,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2257422</v>
-      </c>
-      <c r="C9">
-        <v>19.329999999999998</v>
+        <v>3716483</v>
+      </c>
+      <c r="C9" s="2">
+        <v>18.64</v>
       </c>
       <c r="D9" s="1">
-        <v>3533665</v>
+        <v>6369890</v>
       </c>
       <c r="E9">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>14.29</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -983,18 +1042,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>593247</v>
-      </c>
-      <c r="C10">
-        <v>5.08</v>
+        <v>1030149</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.17</v>
       </c>
       <c r="D10" s="1">
-        <v>944415</v>
+        <v>2506551</v>
       </c>
       <c r="E10">
-        <v>5.15</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>5.62</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1002,18 +1063,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>730020</v>
-      </c>
-      <c r="C11">
-        <v>6.25</v>
+        <v>1250367</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.27</v>
       </c>
       <c r="D11" s="1">
-        <v>1134211</v>
+        <v>3138557</v>
       </c>
       <c r="E11">
-        <v>6.18</v>
-      </c>
-      <c r="O11" s="1"/>
+        <v>7.04</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1021,18 +1084,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>128972</v>
-      </c>
-      <c r="C12">
-        <v>1.1000000000000001</v>
+        <v>222456</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.1200000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>207680</v>
+        <v>654114</v>
       </c>
       <c r="E12">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="O12" s="1"/>
+        <v>1.47</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1040,18 +1105,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1608168</v>
-      </c>
-      <c r="C13">
-        <v>13.77</v>
+        <v>2790200</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>2528292</v>
+        <v>5137097</v>
       </c>
       <c r="E13">
-        <v>13.78</v>
-      </c>
-      <c r="O13" s="1"/>
+        <v>11.53</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1059,18 +1126,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1506417</v>
-      </c>
-      <c r="C14">
-        <v>12.9</v>
+        <v>2623383</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13.16</v>
       </c>
       <c r="D14" s="1">
-        <v>2390580</v>
+        <v>6510614</v>
       </c>
       <c r="E14">
-        <v>13.03</v>
-      </c>
-      <c r="O14" s="1"/>
+        <v>14.61</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1078,18 +1147,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>27677</v>
-      </c>
-      <c r="C15">
+        <v>47068</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.24</v>
       </c>
       <c r="D15" s="1">
-        <v>43744</v>
+        <v>121605</v>
       </c>
       <c r="E15">
-        <v>0.24</v>
-      </c>
-      <c r="O15" s="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1097,18 +1168,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>10311</v>
-      </c>
-      <c r="C16">
+        <v>16464</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D16" s="1">
+        <v>38315</v>
+      </c>
+      <c r="E16">
         <v>0.09</v>
       </c>
-      <c r="D16" s="1">
-        <v>15144</v>
-      </c>
-      <c r="E16">
-        <v>0.08</v>
-      </c>
-      <c r="O16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1116,18 +1189,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>803276</v>
-      </c>
-      <c r="C17">
-        <v>6.88</v>
+        <v>1357497</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.81</v>
       </c>
       <c r="D17" s="1">
-        <v>1233882</v>
+        <v>3072665</v>
       </c>
       <c r="E17">
-        <v>6.73</v>
-      </c>
-      <c r="O17" s="1"/>
+        <v>6.89</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1135,18 +1210,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>606463</v>
-      </c>
-      <c r="C18">
-        <v>5.19</v>
+        <v>1047165</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.25</v>
       </c>
       <c r="D18" s="1">
-        <v>970176</v>
+        <v>2620835</v>
       </c>
       <c r="E18">
-        <v>5.29</v>
-      </c>
-      <c r="O18" s="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1154,18 +1231,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>146189</v>
-      </c>
-      <c r="C19">
+        <v>248690</v>
+      </c>
+      <c r="C19" s="2">
         <v>1.25</v>
       </c>
       <c r="D19" s="1">
-        <v>230493</v>
+        <v>606323</v>
       </c>
       <c r="E19">
-        <v>1.26</v>
-      </c>
-      <c r="O19" s="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1173,26 +1252,46 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>27409</v>
-      </c>
-      <c r="C20">
-        <v>0.23</v>
+        <v>47988</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.24</v>
       </c>
       <c r="D20" s="1">
-        <v>45284</v>
+        <v>119880</v>
       </c>
       <c r="E20">
-        <v>0.25</v>
-      </c>
-      <c r="O20" s="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O21" s="1"/>
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
       <c r="P22" s="1"/>
     </row>
   </sheetData>
